--- a/data/trans_dic/P57_AF_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7986812361167427</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7060580247874744</v>
+        <v>0.7060580247874743</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5652985318896848</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.591517539265333</v>
+        <v>0.5927957382989271</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.601544647709772</v>
+        <v>0.6027643052217557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7716507064478488</v>
+        <v>0.7735321995581181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.654653109820599</v>
+        <v>0.652882843141769</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5337355021082369</v>
+        <v>0.52985515456432</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6581511894857583</v>
+        <v>0.6552591436087087</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.775754680191599</v>
+        <v>0.7769425633703874</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6739424550949841</v>
+        <v>0.6744283941043241</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5651124033187316</v>
+        <v>0.5671296667314167</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6411386194293129</v>
+        <v>0.6398747181780547</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7790578047227785</v>
+        <v>0.7813953255369038</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6812575259196194</v>
+        <v>0.6804096426231662</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6743466584484927</v>
+        <v>0.6680104553001369</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6623157469808862</v>
+        <v>0.6642883407031311</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8231378230549353</v>
+        <v>0.8208406906378509</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7473421910435224</v>
+        <v>0.7460881803115429</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5968836104181635</v>
+        <v>0.6009465155705186</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7178099512872445</v>
+        <v>0.7165703767445097</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8219077368793144</v>
+        <v>0.8209950840292194</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7433131532085904</v>
+        <v>0.7415954514304182</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6168542184943364</v>
+        <v>0.6190632988966726</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6828509553858165</v>
+        <v>0.6823888802146797</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8136773605206177</v>
+        <v>0.8156739340300633</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7353307186738708</v>
+        <v>0.7341018752599637</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7543205241269459</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6755199756178827</v>
+        <v>0.6755199756178828</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6189237474661581</v>
@@ -821,7 +821,7 @@
         <v>0.7743980234426868</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6731151929846405</v>
+        <v>0.6731151929846404</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6103371732565701</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5692940432999154</v>
+        <v>0.5712901270600294</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5988368378042259</v>
+        <v>0.5978142985859749</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7221882474862541</v>
+        <v>0.7254321600433694</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6347270838424586</v>
+        <v>0.6416745571664717</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5902266836245208</v>
+        <v>0.5868239023967636</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6610734531720089</v>
+        <v>0.660041618864839</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7458965666682833</v>
+        <v>0.7467007399300476</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6473635637709573</v>
+        <v>0.6485589623206459</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5892352702189944</v>
+        <v>0.5895459796002541</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6396625960668655</v>
+        <v>0.641117133927156</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7453366897948698</v>
+        <v>0.7443957922754616</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6529838714849935</v>
+        <v>0.651027043194173</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6322966276829085</v>
+        <v>0.6317741548548064</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6626886997448153</v>
+        <v>0.6611959287824749</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7843075523593189</v>
+        <v>0.7825474336585647</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.709237012139518</v>
+        <v>0.7118093781523244</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6491317708605713</v>
+        <v>0.6457886827533788</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7204826767758979</v>
+        <v>0.7174644130749289</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8001817598175589</v>
+        <v>0.799421851437117</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6982667220875759</v>
+        <v>0.6957929247559059</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6299893956089123</v>
+        <v>0.6317916841924672</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6815341134696495</v>
+        <v>0.683745684410867</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7836646875287508</v>
+        <v>0.7833152013736154</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6935923319673566</v>
+        <v>0.6945820999567838</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7323077500599277</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5023874097945822</v>
+        <v>0.5023874097945823</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6485828841099945</v>
@@ -957,7 +957,7 @@
         <v>0.7445869083593992</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5229904874362616</v>
+        <v>0.5229904874362618</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.6208029660170222</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5643757301507578</v>
+        <v>0.5662910903471029</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.607647368699828</v>
+        <v>0.6077098607569527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7034663901163578</v>
+        <v>0.6998216812352742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4688230237837688</v>
+        <v>0.465925539275932</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.611881272710607</v>
+        <v>0.6180995605546571</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6537541152685811</v>
+        <v>0.6551290687221554</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7133148854599198</v>
+        <v>0.7100016141514189</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4945960075622825</v>
+        <v>0.491571249600716</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6010055876091879</v>
+        <v>0.6008633323556115</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6411029126627981</v>
+        <v>0.6432931555722975</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7171048689723193</v>
+        <v>0.7166498602997649</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4909137647770382</v>
+        <v>0.4902352061755109</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6248550520757555</v>
+        <v>0.6247970066055822</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6733352477976796</v>
+        <v>0.6739562665796522</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7643931645862785</v>
+        <v>0.7657930658710779</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5396936560040312</v>
+        <v>0.5355189644336663</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6771340785954602</v>
+        <v>0.6789299305010967</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7148511249191488</v>
+        <v>0.7206184192636759</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.776611393552483</v>
+        <v>0.7763094576073974</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5519921086520996</v>
+        <v>0.5492049496847686</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6401341310071708</v>
+        <v>0.6430916457522392</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6864286641315526</v>
+        <v>0.688172423243009</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7624123941012156</v>
+        <v>0.761377435014077</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5342449973341822</v>
+        <v>0.5331608977715908</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5859538333975772</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.478720451292216</v>
+        <v>0.4787204512922161</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5923368978503931</v>
@@ -1093,7 +1093,7 @@
         <v>0.6554366585784299</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.455083906573337</v>
+        <v>0.4550839065733372</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6025464452214329</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5608155996575701</v>
+        <v>0.5646615168280946</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4925945883255392</v>
+        <v>0.486561250645164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5424541336812161</v>
+        <v>0.5403684238027053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4430231646429561</v>
+        <v>0.4423696060976081</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5347102447898076</v>
+        <v>0.5417678959805161</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4822375029769014</v>
+        <v>0.4787680204514214</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6103699638991842</v>
+        <v>0.6122429836628396</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4266453806366882</v>
+        <v>0.4248327533110262</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5697572236929703</v>
+        <v>0.5647871638734067</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4975976273503487</v>
+        <v>0.4994171241745772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5868731827459632</v>
+        <v>0.5910180989281938</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.444539305696062</v>
+        <v>0.4445495525280821</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6560389663825881</v>
+        <v>0.6584608817964173</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5855293023087464</v>
+        <v>0.5800428125701685</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6281030456966795</v>
+        <v>0.6321146462858508</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5148473804857117</v>
+        <v>0.514240408308775</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6455829533020537</v>
+        <v>0.6441417346295168</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.579561818379653</v>
+        <v>0.5769508986655864</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6971861448119911</v>
+        <v>0.69911403688906</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.483420290247998</v>
+        <v>0.486991889321219</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6340972591943949</v>
+        <v>0.6339448859248905</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5698637721461831</v>
+        <v>0.5692258598679604</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6506723700945951</v>
+        <v>0.6509128329758596</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4915560794891558</v>
+        <v>0.4893341931509519</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7384648209577399</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5726836317124955</v>
+        <v>0.5726836317124956</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6101707331314214</v>
@@ -1241,7 +1241,7 @@
         <v>0.7497026695104043</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5779828364967083</v>
+        <v>0.5779828364967086</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5892341115259495</v>
+        <v>0.589290223454107</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6024842695343013</v>
+        <v>0.6024606102507776</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7219827590766572</v>
+        <v>0.7223445459210479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5518154123630499</v>
+        <v>0.5538604073298532</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5942824053122748</v>
+        <v>0.5937831943489105</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6528215140188769</v>
+        <v>0.653315575149384</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7468804120684858</v>
+        <v>0.7461287418004263</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5678493392241972</v>
+        <v>0.5665765870305239</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5970034515780884</v>
+        <v>0.5960401887198691</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6329365800148706</v>
+        <v>0.6335462812239667</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7384002167414138</v>
+        <v>0.7384785934831947</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5665609926651468</v>
+        <v>0.5661315648783278</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6243697868294725</v>
+        <v>0.6245503436820106</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6367924250507567</v>
+        <v>0.6358661757840121</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7539773894362409</v>
+        <v>0.7531437021866925</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5894168487686726</v>
+        <v>0.5914343072395833</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6276591551495154</v>
+        <v>0.6262541710732124</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6844478240342811</v>
+        <v>0.6845666383792662</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7749011706732113</v>
+        <v>0.7762861171752437</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5969590870551671</v>
+        <v>0.5965081935182593</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6220832922039956</v>
+        <v>0.6204077651975115</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.656688504983528</v>
+        <v>0.6588701414538954</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.759772643005252</v>
+        <v>0.7605072222304933</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5897076036563522</v>
+        <v>0.5894059228377645</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>345530</v>
+        <v>346276</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>621846</v>
+        <v>623107</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>866170</v>
+        <v>868282</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>324021</v>
+        <v>323145</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>491759</v>
+        <v>488184</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>730323</v>
+        <v>727114</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>974892</v>
+        <v>976385</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>415695</v>
+        <v>415995</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>850773</v>
+        <v>853810</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1374221</v>
+        <v>1371512</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1853527</v>
+        <v>1859089</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>757396</v>
+        <v>756454</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>393914</v>
+        <v>390212</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>684668</v>
+        <v>686707</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>923964</v>
+        <v>921385</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>369898</v>
+        <v>369277</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>549941</v>
+        <v>553684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>796524</v>
+        <v>795148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1032893</v>
+        <v>1031746</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>458484</v>
+        <v>457424</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>928670</v>
+        <v>931996</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1463628</v>
+        <v>1462637</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1935894</v>
+        <v>1940644</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>817513</v>
+        <v>816147</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>613021</v>
+        <v>615170</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>582809</v>
+        <v>581814</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>653159</v>
+        <v>656092</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>604384</v>
+        <v>610999</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>623600</v>
+        <v>620005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>718646</v>
+        <v>717525</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>744954</v>
+        <v>745758</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>715911</v>
+        <v>717233</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1257046</v>
+        <v>1257709</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1317913</v>
+        <v>1320910</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1418490</v>
+        <v>1416699</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1343894</v>
+        <v>1339867</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>680863</v>
+        <v>680300</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>644952</v>
+        <v>643499</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>709340</v>
+        <v>707748</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>675332</v>
+        <v>677781</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>685836</v>
+        <v>682304</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>783230</v>
+        <v>779948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>799171</v>
+        <v>798412</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>772204</v>
+        <v>769468</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1343989</v>
+        <v>1347834</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1404182</v>
+        <v>1408738</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1491434</v>
+        <v>1490769</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1427470</v>
+        <v>1429507</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>632012</v>
+        <v>634157</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>536061</v>
+        <v>536116</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>577526</v>
+        <v>574533</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>486805</v>
+        <v>483796</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>608173</v>
+        <v>614354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>570546</v>
+        <v>571746</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>547005</v>
+        <v>544464</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>513992</v>
+        <v>510848</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1270395</v>
+        <v>1270095</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1125080</v>
+        <v>1128924</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1138633</v>
+        <v>1137911</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1019907</v>
+        <v>1018497</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>699740</v>
+        <v>699675</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>594010</v>
+        <v>594558</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>627545</v>
+        <v>628694</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>560394</v>
+        <v>556059</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>673031</v>
+        <v>674816</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>623866</v>
+        <v>628900</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>595544</v>
+        <v>595312</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>573638</v>
+        <v>570742</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1353105</v>
+        <v>1359356</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1204623</v>
+        <v>1207683</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1210574</v>
+        <v>1208930</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1109931</v>
+        <v>1107679</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>249853</v>
+        <v>251567</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>245777</v>
+        <v>242767</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>273440</v>
+        <v>272389</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>428777</v>
+        <v>428144</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>182421</v>
+        <v>184828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>215527</v>
+        <v>213977</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>297688</v>
+        <v>298601</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>384812</v>
+        <v>383177</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>448214</v>
+        <v>444305</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>470665</v>
+        <v>472386</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>582058</v>
+        <v>586169</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>831195</v>
+        <v>831214</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>292277</v>
+        <v>293356</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>292146</v>
+        <v>289409</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>316614</v>
+        <v>318636</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>498291</v>
+        <v>497704</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>220246</v>
+        <v>219754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>259025</v>
+        <v>257858</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>340030</v>
+        <v>340970</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>436019</v>
+        <v>439241</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>498829</v>
+        <v>498709</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>539020</v>
+        <v>538417</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>645334</v>
+        <v>645573</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>919107</v>
+        <v>914952</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1901053</v>
+        <v>1901234</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2041288</v>
+        <v>2041208</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2420054</v>
+        <v>2421267</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1905608</v>
+        <v>1912671</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1968854</v>
+        <v>1967200</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2295582</v>
+        <v>2297320</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2621553</v>
+        <v>2618915</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2080520</v>
+        <v>2075857</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3903988</v>
+        <v>3897689</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4370123</v>
+        <v>4374333</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5066873</v>
+        <v>5067411</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4032330</v>
+        <v>4029273</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2014412</v>
+        <v>2014994</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2157529</v>
+        <v>2154390</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2527299</v>
+        <v>2524505</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2035459</v>
+        <v>2042426</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2079431</v>
+        <v>2074776</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2406793</v>
+        <v>2407211</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2719906</v>
+        <v>2724767</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2187174</v>
+        <v>2185522</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4067993</v>
+        <v>4057036</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4534119</v>
+        <v>4549182</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5213530</v>
+        <v>5218571</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4197069</v>
+        <v>4194922</v>
       </c>
     </row>
     <row r="24">
